--- a/www/ig/fhir/core/ValueSet-fr-core-vs-location-identifier-type.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-location-identifier-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:47:43+01:00</t>
+    <t>2024-02-20T11:21:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/ValueSet-fr-core-vs-location-identifier-type.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-location-identifier-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:21:14+01:00</t>
+    <t>2024-02-20T11:36:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/ValueSet-fr-core-vs-location-identifier-type.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-location-identifier-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:36:44+01:00</t>
+    <t>2024-03-25T12:26:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/ValueSet-fr-core-vs-location-identifier-type.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-location-identifier-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T12:26:12+01:00</t>
+    <t>2024-04-16T11:49:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Interop'Santé (http://interopsante.org/)</t>
+  </si>
+  <si>
+    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -361,43 +364,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -419,58 +422,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/core/ValueSet-fr-core-vs-location-identifier-type.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-location-identifier-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T11:49:14+02:00</t>
+    <t>2024-09-04T10:06:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
